--- a/Grand_Index_Clusters_TYPES_BG_Logit.xlsx
+++ b/Grand_Index_Clusters_TYPES_BG_Logit.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://theuniversityofliverpool-my.sharepoint.com/personal/ucfnale_liverpool_ac_uk/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\US_Geodemographic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8C554A9F-E2ED-4733-BC9C-7D520F651662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80D1FBF-8ED0-490D-9001-2EFF2B51F49D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grand_Index_Clusters_TYPES_BG_L" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1164" uniqueCount="589">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1209" uniqueCount="634">
   <si>
     <t>UniqueID</t>
   </si>
@@ -1654,27 +1654,6 @@
     <t>Income</t>
   </si>
   <si>
-    <t>Hispanic and Kids</t>
-  </si>
-  <si>
-    <t>Wealthy Young Professionals</t>
-  </si>
-  <si>
-    <t>Middle Income Single Family Homes</t>
-  </si>
-  <si>
-    <t>Affluent Nuclear Families</t>
-  </si>
-  <si>
-    <t>Old Wealthy White</t>
-  </si>
-  <si>
-    <t>Low Income African American</t>
-  </si>
-  <si>
-    <t>Low Income Diversity</t>
-  </si>
-  <si>
     <t>GROUP</t>
   </si>
   <si>
@@ -1787,13 +1766,169 @@
   </si>
   <si>
     <t>Alone; Group Quarters High</t>
+  </si>
+  <si>
+    <t>grandchildren</t>
+  </si>
+  <si>
+    <t>Lots bungalows</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Multigenerational Low Density</t>
+  </si>
+  <si>
+    <t>Limited Education, Low Density</t>
+  </si>
+  <si>
+    <t>Blue Collar Suburbs</t>
+  </si>
+  <si>
+    <t>Established, Low Density Diversity</t>
+  </si>
+  <si>
+    <t>Diverse Suburban Families</t>
+  </si>
+  <si>
+    <t>Small Town Commuters</t>
+  </si>
+  <si>
+    <t>Campus Living</t>
+  </si>
+  <si>
+    <t>High Density Central Rental</t>
+  </si>
+  <si>
+    <t>Central Living Singles</t>
+  </si>
+  <si>
+    <t>Urban Professionals</t>
+  </si>
+  <si>
+    <t>?? Odd Cluster - affluent areas, but also seems to be lots of leisure …</t>
+  </si>
+  <si>
+    <t>Remote and Rural Workers</t>
+  </si>
+  <si>
+    <t>Recreation and Migrant Workers</t>
+  </si>
+  <si>
+    <t>Urban Periphery</t>
+  </si>
+  <si>
+    <t>Rural Retirement</t>
+  </si>
+  <si>
+    <t>Rural and Black</t>
+  </si>
+  <si>
+    <t>Rural North ??? Not all north so needs improving</t>
+  </si>
+  <si>
+    <t>Older Families and Retirees in Large Houses (Outer Suburbs)</t>
+  </si>
+  <si>
+    <t>Recent Large Suburban Development</t>
+  </si>
+  <si>
+    <t>Inner Suburbs</t>
+  </si>
+  <si>
+    <t>Premium Large Houses</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Suburban Families in Very Large Houses</t>
+  </si>
+  <si>
+    <t>Affluent Families</t>
+  </si>
+  <si>
+    <t>Peripheral Professionals</t>
+  </si>
+  <si>
+    <t>Graduate Commuters</t>
+  </si>
+  <si>
+    <t>Rural and Suburban</t>
+  </si>
+  <si>
+    <t>Settled Retirement and Second Homes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ageing Professionals</t>
+  </si>
+  <si>
+    <t>Constrained Retirement</t>
+  </si>
+  <si>
+    <t>Aspiring Urbanites</t>
+  </si>
+  <si>
+    <t>Low Income Hispanic Families</t>
+  </si>
+  <si>
+    <t>Urban Diversity</t>
+  </si>
+  <si>
+    <t>Hispanic Enclaves</t>
+  </si>
+  <si>
+    <t>Shift Working Young Families</t>
+  </si>
+  <si>
+    <t>Service Commuter and Constrained</t>
+  </si>
+  <si>
+    <t>Low Income Racial Diversity</t>
+  </si>
+  <si>
+    <t>** Interesting cluster - lots appear to be near big arterial roads</t>
+  </si>
+  <si>
+    <t>Established Diversity</t>
+  </si>
+  <si>
+    <t>** Near quite a lot of sewage works!!</t>
+  </si>
+  <si>
+    <t>Very Low Income Young Families</t>
+  </si>
+  <si>
+    <t>Black Adversity</t>
+  </si>
+  <si>
+    <t>Affluent Older Empty Nesters</t>
+  </si>
+  <si>
+    <t>Lone Service Workers</t>
+  </si>
+  <si>
+    <t>American Indian and Mobile Migrants</t>
+  </si>
+  <si>
+    <t>Settled American Indian Renters</t>
+  </si>
+  <si>
+    <t>**Worth looking at 6_4, 6_5 and 3_4</t>
+  </si>
+  <si>
+    <t>Low Density Dissolution</t>
+  </si>
+  <si>
+    <t>Low Income African American Workers</t>
+  </si>
+  <si>
+    <t>American Adversity</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1924,6 +2059,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2350,7 +2493,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -2362,10 +2505,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2751,29 +2897,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX259"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BF259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AW42" sqref="AW42"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BF13" sqref="BF13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="35" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="40" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="39.453125" customWidth="1"/>
-    <col min="42" max="42" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="35" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="37" max="40" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="39.44140625" customWidth="1"/>
+    <col min="42" max="42" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.77734375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="36.44140625" hidden="1" customWidth="1"/>
+    <col min="47" max="51" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2903,8 +3050,11 @@
       <c r="AQ1" t="s">
         <v>42</v>
       </c>
+      <c r="AZ1" t="s">
+        <v>584</v>
+      </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>43</v>
       </c>
@@ -3035,7 +3185,7 @@
         <v>46</v>
       </c>
       <c r="AR2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="AT2" t="s">
         <v>541</v>
@@ -3050,10 +3200,10 @@
         <v>202</v>
       </c>
       <c r="AX2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -3183,17 +3333,26 @@
       <c r="AQ3" t="s">
         <v>46</v>
       </c>
-      <c r="AR3" s="11" t="s">
-        <v>544</v>
+      <c r="AR3" s="12" t="s">
+        <v>587</v>
       </c>
       <c r="AS3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="AT3" s="12" t="s">
-        <v>556</v>
+      <c r="AT3" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="AU3" s="11" t="s">
+        <v>582</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>583</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>588</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -3323,15 +3482,18 @@
       <c r="AQ4" t="s">
         <v>46</v>
       </c>
-      <c r="AR4" s="11"/>
+      <c r="AR4" s="12"/>
       <c r="AS4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="AT4" s="12" t="s">
-        <v>557</v>
+      <c r="AT4" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>585</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -3461,18 +3623,22 @@
       <c r="AQ5" t="s">
         <v>46</v>
       </c>
-      <c r="AR5" s="11"/>
+      <c r="AR5" s="12"/>
       <c r="AS5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="AT5" s="12" t="s">
-        <v>554</v>
-      </c>
-      <c r="AU5" s="12" t="s">
-        <v>578</v>
-      </c>
+      <c r="AT5" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="AU5" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>589</v>
+      </c>
+      <c r="BF5" s="13"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>53</v>
       </c>
@@ -3602,18 +3768,21 @@
       <c r="AQ6" t="s">
         <v>46</v>
       </c>
-      <c r="AR6" s="11"/>
+      <c r="AR6" s="12"/>
       <c r="AS6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="AT6" s="12" t="s">
-        <v>553</v>
-      </c>
-      <c r="AU6" s="12" t="s">
-        <v>578</v>
+      <c r="AT6" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="AU6" s="11" t="s">
+        <v>571</v>
+      </c>
+      <c r="AZ6" t="s">
+        <v>586</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -3743,15 +3912,18 @@
       <c r="AQ7" t="s">
         <v>46</v>
       </c>
-      <c r="AR7" s="11"/>
+      <c r="AR7" s="12"/>
       <c r="AS7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AT7" s="12" t="s">
-        <v>555</v>
+      <c r="AT7" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="AZ7" t="s">
+        <v>590</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -3881,15 +4053,18 @@
       <c r="AQ8" t="s">
         <v>46</v>
       </c>
-      <c r="AR8" s="11" t="s">
-        <v>545</v>
+      <c r="AR8" s="12" t="s">
+        <v>614</v>
       </c>
       <c r="AS8" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AT8" s="12"/>
+      <c r="AT8" s="11"/>
+      <c r="AZ8" t="s">
+        <v>595</v>
+      </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>59</v>
       </c>
@@ -4019,15 +4194,18 @@
       <c r="AQ9" t="s">
         <v>46</v>
       </c>
-      <c r="AR9" s="11"/>
+      <c r="AR9" s="12"/>
       <c r="AS9" s="10" t="s">
         <v>7</v>
       </c>
       <c r="AU9" t="s">
-        <v>568</v>
+        <v>561</v>
+      </c>
+      <c r="AZ9" t="s">
+        <v>592</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>61</v>
       </c>
@@ -4157,15 +4335,18 @@
       <c r="AQ10" t="s">
         <v>46</v>
       </c>
-      <c r="AR10" s="11"/>
+      <c r="AR10" s="12"/>
       <c r="AS10" s="10" t="s">
         <v>8</v>
       </c>
       <c r="AU10" t="s">
-        <v>569</v>
+        <v>562</v>
+      </c>
+      <c r="AZ10" t="s">
+        <v>591</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>63</v>
       </c>
@@ -4295,12 +4476,15 @@
       <c r="AQ11" t="s">
         <v>46</v>
       </c>
-      <c r="AR11" s="11"/>
+      <c r="AR11" s="12"/>
       <c r="AS11" s="10" t="s">
         <v>9</v>
       </c>
+      <c r="AZ11" t="s">
+        <v>593</v>
+      </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -4430,12 +4614,15 @@
       <c r="AQ12" t="s">
         <v>46</v>
       </c>
-      <c r="AR12" s="11"/>
+      <c r="AR12" s="12"/>
       <c r="AS12" s="10" t="s">
         <v>10</v>
       </c>
+      <c r="AZ12" t="s">
+        <v>594</v>
+      </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>67</v>
       </c>
@@ -4565,14 +4752,17 @@
       <c r="AQ13" t="s">
         <v>46</v>
       </c>
-      <c r="AR13" s="11" t="s">
-        <v>546</v>
+      <c r="AR13" s="12" t="s">
+        <v>610</v>
       </c>
       <c r="AS13" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="AZ13" t="s">
+        <v>596</v>
+      </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>69</v>
       </c>
@@ -4702,12 +4892,15 @@
       <c r="AQ14" t="s">
         <v>46</v>
       </c>
-      <c r="AR14" s="11"/>
+      <c r="AR14" s="12"/>
       <c r="AS14" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="AZ14" t="s">
+        <v>597</v>
+      </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>71</v>
       </c>
@@ -4837,15 +5030,18 @@
       <c r="AQ15" t="s">
         <v>46</v>
       </c>
-      <c r="AR15" s="11"/>
+      <c r="AR15" s="12"/>
       <c r="AS15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="AT15" s="12" t="s">
-        <v>558</v>
+      <c r="AT15" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="AZ15" t="s">
+        <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>73</v>
       </c>
@@ -4975,15 +5171,18 @@
       <c r="AQ16" t="s">
         <v>46</v>
       </c>
-      <c r="AR16" s="11"/>
+      <c r="AR16" s="12"/>
       <c r="AS16" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="AT16" s="12" t="s">
-        <v>572</v>
+      <c r="AT16" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="AZ16" t="s">
+        <v>628</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -5113,12 +5312,15 @@
       <c r="AQ17" t="s">
         <v>46</v>
       </c>
-      <c r="AR17" s="11"/>
+      <c r="AR17" s="12"/>
       <c r="AS17" s="10" t="s">
         <v>15</v>
       </c>
+      <c r="AZ17" t="s">
+        <v>598</v>
+      </c>
     </row>
-    <row r="18" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>77</v>
       </c>
@@ -5248,18 +5450,21 @@
       <c r="AQ18" t="s">
         <v>46</v>
       </c>
-      <c r="AR18" s="11"/>
+      <c r="AR18" s="12"/>
       <c r="AS18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="AT18" s="12" t="s">
-        <v>571</v>
-      </c>
-      <c r="AU18" s="12" t="s">
-        <v>579</v>
+      <c r="AT18" s="11" t="s">
+        <v>564</v>
+      </c>
+      <c r="AU18" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>599</v>
       </c>
     </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>79</v>
       </c>
@@ -5389,12 +5594,15 @@
       <c r="AQ19" t="s">
         <v>46</v>
       </c>
-      <c r="AR19" s="11"/>
+      <c r="AR19" s="12"/>
       <c r="AS19" s="10" t="s">
         <v>17</v>
       </c>
+      <c r="AZ19" t="s">
+        <v>601</v>
+      </c>
     </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -5524,14 +5732,17 @@
       <c r="AQ20" t="s">
         <v>46</v>
       </c>
-      <c r="AR20" s="11" t="s">
-        <v>547</v>
+      <c r="AR20" s="12" t="s">
+        <v>607</v>
       </c>
       <c r="AS20" s="10" t="s">
         <v>18</v>
       </c>
+      <c r="AZ20" t="s">
+        <v>602</v>
+      </c>
     </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>83</v>
       </c>
@@ -5661,12 +5872,15 @@
       <c r="AQ21" t="s">
         <v>46</v>
       </c>
-      <c r="AR21" s="11"/>
+      <c r="AR21" s="12"/>
       <c r="AS21" s="10" t="s">
         <v>19</v>
       </c>
+      <c r="AZ21" t="s">
+        <v>603</v>
+      </c>
     </row>
-    <row r="22" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>85</v>
       </c>
@@ -5796,12 +6010,15 @@
       <c r="AQ22" t="s">
         <v>46</v>
       </c>
-      <c r="AR22" s="11"/>
+      <c r="AR22" s="12"/>
       <c r="AS22" s="10" t="s">
         <v>20</v>
       </c>
+      <c r="AZ22" t="s">
+        <v>604</v>
+      </c>
     </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>87</v>
       </c>
@@ -5931,15 +6148,18 @@
       <c r="AQ23" t="s">
         <v>46</v>
       </c>
-      <c r="AR23" s="11"/>
+      <c r="AR23" s="12"/>
       <c r="AS23" s="10" t="s">
         <v>21</v>
       </c>
       <c r="AV23" t="s">
-        <v>587</v>
+        <v>580</v>
+      </c>
+      <c r="AZ23" t="s">
+        <v>605</v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -6069,18 +6289,21 @@
       <c r="AQ24" t="s">
         <v>46</v>
       </c>
-      <c r="AR24" s="11"/>
+      <c r="AR24" s="12"/>
       <c r="AS24" s="10" t="s">
         <v>22</v>
       </c>
       <c r="AV24" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
       <c r="AW24" t="s">
-        <v>585</v>
+        <v>578</v>
+      </c>
+      <c r="AZ24" t="s">
+        <v>606</v>
       </c>
     </row>
-    <row r="25" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>91</v>
       </c>
@@ -6210,17 +6433,20 @@
       <c r="AQ25" t="s">
         <v>46</v>
       </c>
-      <c r="AR25" s="11" t="s">
-        <v>548</v>
+      <c r="AR25" s="12" t="s">
+        <v>612</v>
       </c>
       <c r="AS25" s="10" t="s">
         <v>23</v>
       </c>
       <c r="AU25" t="s">
-        <v>580</v>
+        <v>573</v>
+      </c>
+      <c r="AZ25" t="s">
+        <v>626</v>
       </c>
     </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>92</v>
       </c>
@@ -6350,15 +6576,18 @@
       <c r="AQ26" t="s">
         <v>46</v>
       </c>
-      <c r="AR26" s="11"/>
+      <c r="AR26" s="12"/>
       <c r="AS26" s="10" t="s">
         <v>24</v>
       </c>
       <c r="AU26" t="s">
-        <v>581</v>
+        <v>574</v>
+      </c>
+      <c r="AZ26" t="s">
+        <v>608</v>
       </c>
     </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>93</v>
       </c>
@@ -6488,15 +6717,18 @@
       <c r="AQ27" t="s">
         <v>46</v>
       </c>
-      <c r="AR27" s="11"/>
+      <c r="AR27" s="12"/>
       <c r="AS27" s="10" t="s">
         <v>25</v>
       </c>
       <c r="AU27" t="s">
-        <v>581</v>
+        <v>574</v>
+      </c>
+      <c r="AZ27" t="s">
+        <v>609</v>
       </c>
     </row>
-    <row r="28" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -6626,15 +6858,18 @@
       <c r="AQ28" t="s">
         <v>46</v>
       </c>
-      <c r="AR28" s="11"/>
+      <c r="AR28" s="12"/>
       <c r="AS28" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="AU28" s="12" t="s">
-        <v>579</v>
+      <c r="AU28" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>611</v>
       </c>
     </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>95</v>
       </c>
@@ -6764,12 +6999,15 @@
       <c r="AQ29" t="s">
         <v>46</v>
       </c>
-      <c r="AR29" s="11"/>
+      <c r="AR29" s="12"/>
       <c r="AS29" s="10" t="s">
         <v>27</v>
       </c>
+      <c r="AZ29" t="s">
+        <v>613</v>
+      </c>
     </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>96</v>
       </c>
@@ -6899,17 +7137,20 @@
       <c r="AQ30" t="s">
         <v>46</v>
       </c>
-      <c r="AR30" s="11" t="s">
-        <v>549</v>
+      <c r="AR30" s="12" t="s">
+        <v>633</v>
       </c>
       <c r="AS30" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="AT30" s="12" t="s">
-        <v>573</v>
+      <c r="AT30" s="11" t="s">
+        <v>566</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>615</v>
       </c>
     </row>
-    <row r="31" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>97</v>
       </c>
@@ -7039,12 +7280,15 @@
       <c r="AQ31" t="s">
         <v>46</v>
       </c>
-      <c r="AR31" s="11"/>
+      <c r="AR31" s="12"/>
       <c r="AS31" s="10" t="s">
         <v>29</v>
       </c>
+      <c r="AZ31" t="s">
+        <v>627</v>
+      </c>
     </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -7174,15 +7418,18 @@
       <c r="AQ32" t="s">
         <v>46</v>
       </c>
-      <c r="AR32" s="11"/>
+      <c r="AR32" s="12"/>
       <c r="AS32" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AT32" s="12" t="s">
-        <v>558</v>
+      <c r="AT32" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="AZ32" t="s">
+        <v>632</v>
       </c>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -7312,15 +7559,21 @@
       <c r="AQ33" t="s">
         <v>46</v>
       </c>
-      <c r="AR33" s="11"/>
+      <c r="AR33" s="12"/>
       <c r="AS33" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AT33" s="12" t="s">
-        <v>574</v>
+      <c r="AT33" s="11" t="s">
+        <v>567</v>
+      </c>
+      <c r="AZ33" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="BE33" s="15" t="s">
+        <v>630</v>
       </c>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -7450,15 +7703,18 @@
       <c r="AQ34" t="s">
         <v>46</v>
       </c>
-      <c r="AR34" s="11"/>
+      <c r="AR34" s="12"/>
       <c r="AS34" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AT34" s="12" t="s">
-        <v>570</v>
+      <c r="AT34" s="11" t="s">
+        <v>563</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>629</v>
       </c>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>101</v>
       </c>
@@ -7588,15 +7844,18 @@
       <c r="AQ35" t="s">
         <v>46</v>
       </c>
-      <c r="AR35" s="11"/>
+      <c r="AR35" s="12"/>
       <c r="AS35" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AT35" s="12" t="s">
-        <v>558</v>
+      <c r="AT35" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>625</v>
       </c>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>102</v>
       </c>
@@ -7726,20 +7985,23 @@
       <c r="AQ36" t="s">
         <v>46</v>
       </c>
-      <c r="AR36" s="11" t="s">
-        <v>550</v>
+      <c r="AR36" s="12" t="s">
+        <v>616</v>
       </c>
       <c r="AS36" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AT36" s="12" t="s">
-        <v>576</v>
-      </c>
-      <c r="AU36" s="12" t="s">
-        <v>582</v>
+      <c r="AT36" s="11" t="s">
+        <v>569</v>
+      </c>
+      <c r="AU36" s="11" t="s">
+        <v>575</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>618</v>
       </c>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>103</v>
       </c>
@@ -7869,21 +8131,24 @@
       <c r="AQ37" t="s">
         <v>46</v>
       </c>
-      <c r="AR37" s="11"/>
+      <c r="AR37" s="12"/>
       <c r="AS37" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="AT37" s="12" t="s">
+      <c r="AT37" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="AU37" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="AU37" s="12" t="s">
-        <v>582</v>
-      </c>
       <c r="AX37" t="s">
-        <v>584</v>
+        <v>577</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>619</v>
       </c>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -8013,15 +8278,21 @@
       <c r="AQ38" t="s">
         <v>46</v>
       </c>
-      <c r="AR38" s="11"/>
+      <c r="AR38" s="12"/>
       <c r="AS38" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="AT38" s="12" t="s">
-        <v>575</v>
+      <c r="AT38" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>624</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>623</v>
       </c>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>105</v>
       </c>
@@ -8151,21 +8422,24 @@
       <c r="AQ39" t="s">
         <v>46</v>
       </c>
-      <c r="AR39" s="11"/>
+      <c r="AR39" s="12"/>
       <c r="AS39" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AT39" s="12" t="s">
+      <c r="AT39" s="11" t="s">
+        <v>568</v>
+      </c>
+      <c r="AU39" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="AU39" s="12" t="s">
-        <v>582</v>
-      </c>
       <c r="AX39" t="s">
-        <v>584</v>
+        <v>577</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>622</v>
       </c>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>106</v>
       </c>
@@ -8295,15 +8569,18 @@
       <c r="AQ40" t="s">
         <v>46</v>
       </c>
-      <c r="AR40" s="11"/>
+      <c r="AR40" s="12"/>
       <c r="AS40" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AT40" s="12" t="s">
-        <v>577</v>
+      <c r="AT40" s="11" t="s">
+        <v>570</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>617</v>
       </c>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>107</v>
       </c>
@@ -8433,21 +8710,27 @@
       <c r="AQ41" t="s">
         <v>46</v>
       </c>
-      <c r="AR41" s="11"/>
+      <c r="AR41" s="12"/>
       <c r="AS41" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="AT41" s="12" t="s">
-        <v>558</v>
+      <c r="AT41" s="11" t="s">
+        <v>551</v>
       </c>
       <c r="AV41" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="AW41" t="s">
-        <v>588</v>
+        <v>581</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>620</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>621</v>
       </c>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>108</v>
       </c>
@@ -8578,7 +8861,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>109</v>
       </c>
@@ -8709,7 +8992,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>110</v>
       </c>
@@ -8840,7 +9123,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>111</v>
       </c>
@@ -8971,7 +9254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>112</v>
       </c>
@@ -9102,7 +9385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>113</v>
       </c>
@@ -9233,7 +9516,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>114</v>
       </c>
@@ -9364,7 +9647,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>117</v>
       </c>
@@ -9495,7 +9778,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>119</v>
       </c>
@@ -9626,7 +9909,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>121</v>
       </c>
@@ -9757,7 +10040,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>123</v>
       </c>
@@ -9888,7 +10171,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>127</v>
       </c>
@@ -10019,7 +10302,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>129</v>
       </c>
@@ -10150,7 +10433,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>132</v>
       </c>
@@ -10281,7 +10564,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>135</v>
       </c>
@@ -10412,7 +10695,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>137</v>
       </c>
@@ -10543,7 +10826,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>139</v>
       </c>
@@ -10674,7 +10957,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>141</v>
       </c>
@@ -10805,7 +11088,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>143</v>
       </c>
@@ -10936,7 +11219,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>145</v>
       </c>
@@ -11067,7 +11350,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>147</v>
       </c>
@@ -11198,7 +11481,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>149</v>
       </c>
@@ -11329,7 +11612,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>151</v>
       </c>
@@ -11460,7 +11743,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>153</v>
       </c>
@@ -11591,7 +11874,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>155</v>
       </c>
@@ -11722,7 +12005,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>157</v>
       </c>
@@ -11853,7 +12136,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>159</v>
       </c>
@@ -11984,7 +12267,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>161</v>
       </c>
@@ -12115,7 +12398,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>163</v>
       </c>
@@ -12246,7 +12529,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>165</v>
       </c>
@@ -12377,7 +12660,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>167</v>
       </c>
@@ -12508,7 +12791,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>169</v>
       </c>
@@ -12639,7 +12922,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>171</v>
       </c>
@@ -12770,7 +13053,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>173</v>
       </c>
@@ -12901,7 +13184,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>175</v>
       </c>
@@ -13032,7 +13315,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>177</v>
       </c>
@@ -13163,7 +13446,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>179</v>
       </c>
@@ -13294,7 +13577,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>181</v>
       </c>
@@ -13425,7 +13708,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>183</v>
       </c>
@@ -13556,7 +13839,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>185</v>
       </c>
@@ -13687,7 +13970,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>188</v>
       </c>
@@ -13818,7 +14101,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>189</v>
       </c>
@@ -13949,7 +14232,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>191</v>
       </c>
@@ -14080,7 +14363,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>194</v>
       </c>
@@ -14211,7 +14494,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>196</v>
       </c>
@@ -14342,7 +14625,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>198</v>
       </c>
@@ -14473,7 +14756,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>200</v>
       </c>
@@ -14604,7 +14887,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>203</v>
       </c>
@@ -14735,7 +15018,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>206</v>
       </c>
@@ -14866,7 +15149,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>209</v>
       </c>
@@ -14997,7 +15280,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>211</v>
       </c>
@@ -15128,7 +15411,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>213</v>
       </c>
@@ -15259,7 +15542,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>215</v>
       </c>
@@ -15390,7 +15673,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>216</v>
       </c>
@@ -15521,7 +15804,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>217</v>
       </c>
@@ -15652,7 +15935,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>218</v>
       </c>
@@ -15783,7 +16066,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>219</v>
       </c>
@@ -15914,7 +16197,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>222</v>
       </c>
@@ -16045,7 +16328,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>224</v>
       </c>
@@ -16176,7 +16459,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>226</v>
       </c>
@@ -16307,7 +16590,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>228</v>
       </c>
@@ -16438,7 +16721,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>230</v>
       </c>
@@ -16569,7 +16852,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>232</v>
       </c>
@@ -16700,7 +16983,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>234</v>
       </c>
@@ -16831,7 +17114,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>236</v>
       </c>
@@ -16962,7 +17245,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>238</v>
       </c>
@@ -17093,7 +17376,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>240</v>
       </c>
@@ -17224,7 +17507,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>242</v>
       </c>
@@ -17355,7 +17638,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>244</v>
       </c>
@@ -17486,7 +17769,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>246</v>
       </c>
@@ -17617,7 +17900,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>248</v>
       </c>
@@ -17748,7 +18031,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>250</v>
       </c>
@@ -17879,7 +18162,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>252</v>
       </c>
@@ -18010,7 +18293,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>254</v>
       </c>
@@ -18141,7 +18424,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>256</v>
       </c>
@@ -18272,7 +18555,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>258</v>
       </c>
@@ -18403,7 +18686,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>260</v>
       </c>
@@ -18534,7 +18817,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>262</v>
       </c>
@@ -18665,7 +18948,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>264</v>
       </c>
@@ -18796,7 +19079,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>266</v>
       </c>
@@ -18918,7 +19201,7 @@
         <v>82.7210261739625</v>
       </c>
       <c r="AO121" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="AP121" t="s">
         <v>45</v>
@@ -18927,7 +19210,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>268</v>
       </c>
@@ -19049,7 +19332,7 @@
         <v>72.124373126164897</v>
       </c>
       <c r="AO122" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="AP122" t="s">
         <v>45</v>
@@ -19058,7 +19341,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>269</v>
       </c>
@@ -19180,7 +19463,7 @@
         <v>178.00547057838099</v>
       </c>
       <c r="AO123" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="AP123" t="s">
         <v>45</v>
@@ -19189,7 +19472,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>270</v>
       </c>
@@ -19311,7 +19594,7 @@
         <v>101.419674647211</v>
       </c>
       <c r="AO124" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="AP124" t="s">
         <v>45</v>
@@ -19320,7 +19603,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>271</v>
       </c>
@@ -19442,7 +19725,7 @@
         <v>78.075404441800899</v>
       </c>
       <c r="AO125" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="AP125" t="s">
         <v>45</v>
@@ -19451,7 +19734,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>272</v>
       </c>
@@ -19573,7 +19856,7 @@
         <v>161.91283072035699</v>
       </c>
       <c r="AO126" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="AP126" t="s">
         <v>45</v>
@@ -19582,7 +19865,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>273</v>
       </c>
@@ -19704,7 +19987,7 @@
         <v>146.66909591126401</v>
       </c>
       <c r="AO127" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="AP127" t="s">
         <v>45</v>
@@ -19713,7 +19996,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>274</v>
       </c>
@@ -19835,7 +20118,7 @@
         <v>140.35036969958799</v>
       </c>
       <c r="AO128" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="AP128" t="s">
         <v>45</v>
@@ -19844,7 +20127,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>275</v>
       </c>
@@ -19966,7 +20249,7 @@
         <v>198.858333543686</v>
       </c>
       <c r="AO129" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="AP129" t="s">
         <v>45</v>
@@ -19975,7 +20258,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>276</v>
       </c>
@@ -20106,7 +20389,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>279</v>
       </c>
@@ -20237,7 +20520,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>281</v>
       </c>
@@ -20368,7 +20651,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>283</v>
       </c>
@@ -20499,7 +20782,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>285</v>
       </c>
@@ -20630,7 +20913,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>287</v>
       </c>
@@ -20761,7 +21044,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>289</v>
       </c>
@@ -20892,7 +21175,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>291</v>
       </c>
@@ -21023,7 +21306,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>293</v>
       </c>
@@ -21154,7 +21437,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>295</v>
       </c>
@@ -21285,7 +21568,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>297</v>
       </c>
@@ -21416,7 +21699,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>299</v>
       </c>
@@ -21547,7 +21830,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>301</v>
       </c>
@@ -21678,7 +21961,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>303</v>
       </c>
@@ -21809,7 +22092,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>305</v>
       </c>
@@ -21940,7 +22223,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>307</v>
       </c>
@@ -22071,7 +22354,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>309</v>
       </c>
@@ -22202,7 +22485,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>311</v>
       </c>
@@ -22333,7 +22616,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>313</v>
       </c>
@@ -22464,7 +22747,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>315</v>
       </c>
@@ -22595,7 +22878,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>319</v>
       </c>
@@ -22726,7 +23009,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>322</v>
       </c>
@@ -22857,7 +23140,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>325</v>
       </c>
@@ -22988,7 +23271,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>327</v>
       </c>
@@ -23119,7 +23402,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>329</v>
       </c>
@@ -23250,7 +23533,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>331</v>
       </c>
@@ -23381,7 +23664,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="156" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>334</v>
       </c>
@@ -23512,7 +23795,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="157" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>336</v>
       </c>
@@ -23643,7 +23926,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>338</v>
       </c>
@@ -23774,7 +24057,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>340</v>
       </c>
@@ -23905,7 +24188,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="160" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>342</v>
       </c>
@@ -24036,7 +24319,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>344</v>
       </c>
@@ -24167,7 +24450,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="162" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>346</v>
       </c>
@@ -24298,7 +24581,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="163" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>348</v>
       </c>
@@ -24429,7 +24712,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="164" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>350</v>
       </c>
@@ -24560,7 +24843,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="165" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>353</v>
       </c>
@@ -24691,7 +24974,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="166" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>355</v>
       </c>
@@ -24822,7 +25105,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="167" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>356</v>
       </c>
@@ -24953,7 +25236,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="168" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>358</v>
       </c>
@@ -25084,7 +25367,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="169" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>360</v>
       </c>
@@ -25215,7 +25498,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="170" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>362</v>
       </c>
@@ -25346,7 +25629,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="171" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>364</v>
       </c>
@@ -25477,7 +25760,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="172" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>366</v>
       </c>
@@ -25608,7 +25891,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="173" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>368</v>
       </c>
@@ -25739,7 +26022,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="174" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>371</v>
       </c>
@@ -25870,7 +26153,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="175" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>373</v>
       </c>
@@ -26001,7 +26284,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="176" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>375</v>
       </c>
@@ -26132,7 +26415,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="177" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>377</v>
       </c>
@@ -26263,7 +26546,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="178" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>379</v>
       </c>
@@ -26394,7 +26677,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="179" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>381</v>
       </c>
@@ -26525,7 +26808,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="180" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>383</v>
       </c>
@@ -26656,7 +26939,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="181" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>385</v>
       </c>
@@ -26787,7 +27070,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="182" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>387</v>
       </c>
@@ -26918,7 +27201,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="183" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>389</v>
       </c>
@@ -27049,7 +27332,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="184" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>392</v>
       </c>
@@ -27180,7 +27463,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="185" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>394</v>
       </c>
@@ -27311,7 +27594,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="186" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>396</v>
       </c>
@@ -27442,7 +27725,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="187" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>398</v>
       </c>
@@ -27573,7 +27856,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="188" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>400</v>
       </c>
@@ -27704,7 +27987,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="189" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>402</v>
       </c>
@@ -27835,7 +28118,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="190" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>405</v>
       </c>
@@ -27966,7 +28249,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="191" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>407</v>
       </c>
@@ -28097,7 +28380,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="192" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>409</v>
       </c>
@@ -28228,7 +28511,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="193" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>411</v>
       </c>
@@ -28359,7 +28642,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="194" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>413</v>
       </c>
@@ -28490,7 +28773,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="195" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>415</v>
       </c>
@@ -28621,7 +28904,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="196" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>417</v>
       </c>
@@ -28752,7 +29035,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="197" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>419</v>
       </c>
@@ -28883,7 +29166,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="198" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>421</v>
       </c>
@@ -29014,7 +29297,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="199" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>423</v>
       </c>
@@ -29145,7 +29428,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="200" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>425</v>
       </c>
@@ -29276,7 +29559,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="201" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>427</v>
       </c>
@@ -29407,7 +29690,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="202" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>429</v>
       </c>
@@ -29538,7 +29821,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="203" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>431</v>
       </c>
@@ -29669,7 +29952,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="204" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>433</v>
       </c>
@@ -29800,7 +30083,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="205" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>435</v>
       </c>
@@ -29931,7 +30214,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="206" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>437</v>
       </c>
@@ -30062,7 +30345,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="207" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>439</v>
       </c>
@@ -30193,7 +30476,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="208" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>441</v>
       </c>
@@ -30324,7 +30607,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="209" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>443</v>
       </c>
@@ -30455,7 +30738,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="210" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>445</v>
       </c>
@@ -30586,7 +30869,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="211" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>447</v>
       </c>
@@ -30717,7 +31000,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="212" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>449</v>
       </c>
@@ -30848,7 +31131,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="213" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>451</v>
       </c>
@@ -30979,7 +31262,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="214" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>454</v>
       </c>
@@ -31110,7 +31393,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="215" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>456</v>
       </c>
@@ -31241,7 +31524,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="216" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>458</v>
       </c>
@@ -31372,7 +31655,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="217" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>460</v>
       </c>
@@ -31503,7 +31786,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="218" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>462</v>
       </c>
@@ -31634,7 +31917,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="219" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>464</v>
       </c>
@@ -31765,7 +32048,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="220" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>466</v>
       </c>
@@ -31896,7 +32179,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="221" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>468</v>
       </c>
@@ -32027,7 +32310,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="222" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>470</v>
       </c>
@@ -32158,7 +32441,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="223" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>473</v>
       </c>
@@ -32289,7 +32572,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="224" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>475</v>
       </c>
@@ -32420,7 +32703,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="225" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>477</v>
       </c>
@@ -32551,7 +32834,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="226" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>479</v>
       </c>
@@ -32682,7 +32965,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="227" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>482</v>
       </c>
@@ -32813,7 +33096,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="228" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>484</v>
       </c>
@@ -32944,7 +33227,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="229" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>486</v>
       </c>
@@ -33075,7 +33358,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="230" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>488</v>
       </c>
@@ -33206,7 +33489,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="231" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>490</v>
       </c>
@@ -33337,7 +33620,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="232" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>492</v>
       </c>
@@ -33468,7 +33751,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="233" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>494</v>
       </c>
@@ -33599,7 +33882,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="234" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>496</v>
       </c>
@@ -33730,7 +34013,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="235" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>498</v>
       </c>
@@ -33861,7 +34144,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="236" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>500</v>
       </c>
@@ -33992,7 +34275,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="237" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>502</v>
       </c>
@@ -34123,7 +34406,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="238" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>504</v>
       </c>
@@ -34254,7 +34537,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="239" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>506</v>
       </c>
@@ -34385,7 +34668,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="240" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>508</v>
       </c>
@@ -34516,7 +34799,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="241" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>510</v>
       </c>
@@ -34647,7 +34930,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="242" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>512</v>
       </c>
@@ -34778,7 +35061,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="243" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>514</v>
       </c>
@@ -34909,7 +35192,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="244" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>516</v>
       </c>
@@ -35040,7 +35323,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="245" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>519</v>
       </c>
@@ -35171,7 +35454,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="246" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>521</v>
       </c>
@@ -35302,7 +35585,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="247" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>523</v>
       </c>
@@ -35433,7 +35716,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="248" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>525</v>
       </c>
@@ -35564,7 +35847,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="249" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>527</v>
       </c>
@@ -35695,7 +35978,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="250" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>529</v>
       </c>
@@ -35826,7 +36109,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="251" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>531</v>
       </c>
@@ -35957,7 +36240,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="252" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>533</v>
       </c>
@@ -36088,7 +36371,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="253" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>534</v>
       </c>
@@ -36219,7 +36502,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="254" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>535</v>
       </c>
@@ -36350,7 +36633,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="255" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>536</v>
       </c>
@@ -36481,7 +36764,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="256" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>537</v>
       </c>
@@ -36612,7 +36895,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="257" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>538</v>
       </c>
@@ -36743,7 +37026,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="258" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>539</v>
       </c>
@@ -36874,7 +37157,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="259" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>540</v>
       </c>
